--- a/pred_ohlcv/54_21/2019-10-21 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3.116938050000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3.116938050000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3.035674860000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3.418874860000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3.418874860000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-0.02742513999999874</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-2.844425139999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-2.523925139999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-4.765625139999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-4.637525139999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-2.786063459999999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2.786063459999999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3.418763459999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>13.41599735</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>10.34469735</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3.00908317</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1.68848322</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>4.52318322</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>4.36198322</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9.42708322</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9.42708322</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>9.42708322</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>9.59558322</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>9.59558322</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>8.965023929999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>10.01802393</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>9.618423929999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>5.713976999999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>6.909376999999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5.215358589999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-12.27844141</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2.181458589999998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7.164258589999998</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4.219058589999999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>4.446258589999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>10.54705859</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>20.22107015999999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>19.84787015999999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>19.30647015999999</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>32.39483088999999</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>29.54403088999999</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>29.19133088999999</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>29.30133088999999</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>29.57943088999999</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>30.40366887999999</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>30.46630686999999</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>30.21925062999999</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>33.25825062999998</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>32.93665062999999</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>30.61865062999999</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>32.71705062999999</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25.98955062999999</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>28.22245062999999</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>30.05671025999999</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>30.36461025999999</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>248.2465355499998</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>247.5209355499998</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>312.1054550599998</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>311.3812550599998</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>318.4280550599998</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>318.4576550599998</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>318.9485670699998</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>319.0876670699998</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>344.1959670699998</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>348.6294670699997</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>349.9527670699998</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>352.1962670699997</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>356.4852626199997</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>360.2753626199997</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>355.7025626199998</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>354.3454626199998</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>364.2254626199997</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>354.6631626499997</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>352.0091626499997</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>358.5911662299997</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>360.2841827499997</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>352.5012827499997</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>334.2031827499997</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>347.7717298999997</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>347.9885298999997</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>344.7134298999997</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>339.8310298999997</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>335.3238298999997</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>335.9837298999997</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>336.9609298999997</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>337.8737298999997</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>338.6919298999997</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>342.3525298999997</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>338.9651474499997</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>337.4531474499997</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>337.9431474799998</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>338.0938474799997</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>426.7189052199998</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>441.0230052199998</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>427.2819052199998</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>424.8114052199998</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>424.9298052199998</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>430.5622530299998</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>433.6040530299998</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>434.9664547999998</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>438.5359547999998</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>446.3609318299999</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>476.6978318299999</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>465.7915966299998</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>468.4428966299998</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>473.4965166399998</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>466.3979166399998</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>472.3481166399998</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>473.9916166399998</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>469.3157166399998</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>467.3334166399998</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>468.2810166399998</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>475.2101166399999</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>472.9308166399999</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>475.8817617699999</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>473.8032617699998</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>477.4526617699998</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>475.2679617699998</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>478.5848617699998</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>477.5466282399998</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>476.7171282399998</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>473.5612282399998</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>456.5310281899999</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>460.7953281899999</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>461.2667804899999</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>461.0555804899998</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>459.1427804899998</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>459.1427804899998</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>457.4343804899999</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>456.8005804899998</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>462.2735804899999</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>461.3475804899999</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>461.3475804899999</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>457.9026116499998</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>457.7521116499998</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>456.2240116499998</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>453.2111116499998</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>471.2363541</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>471.2363541</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>475.7586541</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>475.6923541</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>474.7658541</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>474.0680541</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>473.1347541000001</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>471.8099541000001</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>471.13139947</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>470.58919947</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>503.7137257799999</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>502.9092679399999</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>500.63656794</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>501.5068679399999</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>504.11776794</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>502.89036794</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>502.32246794</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>497.84576794</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>497.2387679399999</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>499.2589679399999</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>496.4184679399999</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>501.7366777999999</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>505.30790816</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>503.54930816</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>508.69850816</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>517.7156152199999</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>518.5224152199999</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>516.7424152199999</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>516.7468152199999</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>515.66461522</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>514.86250918</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>514.86250918</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>514.79680918</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>513.6652091799999</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>513.6652091799999</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>513.75200918</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>512.92710918</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>512.24340918</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>512.24340918</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>522.7327091799999</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>523.0720091799999</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>523.9430091799999</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>522.3355091799999</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>522.8858091399999</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>521.7236091399999</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>520.5514091399999</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>519.78590917</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>520.91770917</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>536.8584703299999</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>542.65199818</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>544.54278928</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>544.3084334199999</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>541.8692334199999</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>548.3262393899998</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>547.5115892099999</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>548.4557405699999</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>548.8905405699999</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>548.2015365799999</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>552.8288365799999</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>564.1212112599999</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>561.9034112599999</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>560.4514112599999</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>561.7903112599998</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>560.0895112599999</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>560.0895112599999</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>559.9078083499999</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>559.0088083499999</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>556.3693089499999</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>556.3693089499999</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>558.2396092299999</v>
       </c>
       <c r="H1173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>560.2239092299999</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>558.7898807499998</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>559.5703683199998</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>560.6380683199998</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>577.1577683199998</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>578.4298683199999</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>573.8187585999999</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>579.0294585999999</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>578.9572454999999</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>578.9572454999999</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>581.6101323999999</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>594.5259323999999</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>595.9285881399999</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>592.7362881399998</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>596.1408881399998</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>595.7751881399998</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>593.7377881399998</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>593.7377881399998</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>592.7042881399998</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>592.7042881399998</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>592.2805316499998</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>596.0587316499998</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>597.4397316499998</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>593.7633316499998</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>595.6353316499998</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>585.5449316499997</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>585.7937316499997</v>
       </c>
       <c r="H1207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>583.2408316499997</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>571.8157316499996</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>572.7865316499997</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>571.8087639999997</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>572.1121639999997</v>
       </c>
       <c r="H1212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>568.1738215299997</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>566.9885215299997</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>568.2645215299997</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>567.8889215299997</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>565.6721215299997</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>564.9981215299997</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>564.9981215299997</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>564.9981215299997</v>
       </c>
       <c r="H1220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>564.1858210599997</v>
       </c>
       <c r="H1221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>564.1858210599997</v>
       </c>
       <c r="H1222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>564.1858210599997</v>
       </c>
       <c r="H1223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>564.6634210599998</v>
       </c>
       <c r="H1224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>562.5532210599998</v>
       </c>
       <c r="H1225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>562.5532210599998</v>
       </c>
       <c r="H1226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>566.3508210599998</v>
       </c>
       <c r="H1227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>566.0084210599998</v>
       </c>
       <c r="H1228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>566.3654210599998</v>
       </c>
       <c r="H1229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>566.3654210599998</v>
       </c>
       <c r="H1230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>565.3596210599998</v>
       </c>
       <c r="H1231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>565.3596210599998</v>
       </c>
       <c r="H1232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>565.8274210599998</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>565.8274210599998</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>564.0656210599998</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>563.9060210599998</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>563.9751210599999</v>
       </c>
       <c r="H1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>563.9751210599999</v>
       </c>
       <c r="H1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>564.8991017799999</v>
       </c>
       <c r="H1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>565.1398017799999</v>
       </c>
       <c r="H1240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>564.3542017799998</v>
       </c>
       <c r="H1241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>565.6813017799998</v>
       </c>
       <c r="H1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>565.6813017799998</v>
       </c>
       <c r="H1243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>564.6257173799997</v>
       </c>
       <c r="H1244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>560.3437173799997</v>
       </c>
       <c r="H1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>559.5264173799997</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>560.5368905999997</v>
       </c>
       <c r="H1247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>563.4997905999996</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>564.2606905999996</v>
       </c>
       <c r="H1249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>563.9606905999997</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>565.5120905999996</v>
       </c>
       <c r="H1251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>567.9421905999997</v>
       </c>
       <c r="H1252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>565.3857905999996</v>
       </c>
       <c r="H1253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>565.3857905999996</v>
       </c>
       <c r="H1254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>563.3738905999996</v>
       </c>
       <c r="H1255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>563.3738905999996</v>
       </c>
       <c r="H1256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>561.4804905999996</v>
       </c>
       <c r="H1257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>564.2497905999996</v>
       </c>
       <c r="H1258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>565.2984905999997</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>565.2984905999997</v>
       </c>
       <c r="H1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>565.5691905999997</v>
       </c>
       <c r="H1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>565.5691905999997</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>567.0799905999997</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>566.7583905999998</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>566.9909905999998</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>566.5045905999998</v>
       </c>
       <c r="H1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>569.1280905999998</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>568.6035905999998</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>571.2424905999999</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>571.1881905999999</v>
       </c>
       <c r="H1270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>574.5269905999999</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>580.4395905999999</v>
       </c>
       <c r="H1272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>586.8531905999998</v>
       </c>
       <c r="H1273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>586.8531905999998</v>
       </c>
       <c r="H1274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>588.7681905999998</v>
       </c>
       <c r="H1275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>586.2223905999998</v>
       </c>
       <c r="H1276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>588.6352905999998</v>
       </c>
       <c r="H1277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>586.1356905999999</v>
       </c>
       <c r="H1278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>584.1793905999998</v>
       </c>
       <c r="H1279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>584.1793905999998</v>
       </c>
       <c r="H1280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>582.3873905999998</v>
       </c>
       <c r="H1281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>582.3873905999998</v>
       </c>
       <c r="H1282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>585.8744905999998</v>
       </c>
       <c r="H1283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>589.1224627999999</v>
       </c>
       <c r="H1284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>588.2813627999999</v>
       </c>
       <c r="H1285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>589.4276906399999</v>
       </c>
       <c r="H1286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>587.2176906399999</v>
       </c>
       <c r="H1287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>586.3664906399999</v>
       </c>
       <c r="H1288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>584.8991906399999</v>
       </c>
       <c r="H1289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>584.8991906399999</v>
       </c>
       <c r="H1290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>581.5028906399999</v>
       </c>
       <c r="H1291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>579.4779906399999</v>
       </c>
       <c r="H1292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>579.4779906399999</v>
       </c>
       <c r="H1293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>579.0862906399999</v>
       </c>
       <c r="H1294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>577.8476906399999</v>
       </c>
       <c r="H1295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>579.7799906399999</v>
       </c>
       <c r="H1296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>583.3211906399999</v>
       </c>
       <c r="H1297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>584.9583906399999</v>
       </c>
       <c r="H1298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>584.38769064</v>
       </c>
       <c r="H1299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>585.06419064</v>
       </c>
       <c r="H1300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>587.52729064</v>
       </c>
       <c r="H1301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>586.2775906400001</v>
       </c>
       <c r="H1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>586.2873906400001</v>
       </c>
       <c r="H1303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>585.6656906400001</v>
       </c>
       <c r="H1304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>586.7743858700001</v>
       </c>
       <c r="H1305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>585.4762858700001</v>
       </c>
       <c r="H1306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>585.4762858700001</v>
       </c>
       <c r="H1307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>585.4067858700001</v>
       </c>
       <c r="H1308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>586.1793858700001</v>
       </c>
       <c r="H1309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>586.1793858700001</v>
       </c>
       <c r="H1310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>585.8593858700001</v>
       </c>
       <c r="H1311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>585.8593858700001</v>
       </c>
       <c r="H1312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>587.1975828200001</v>
       </c>
       <c r="H1313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>585.4820828200001</v>
       </c>
       <c r="H1314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>587.0748828200001</v>
       </c>
       <c r="H1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>588.6627828200001</v>
       </c>
       <c r="H1316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>588.6627828200001</v>
       </c>
       <c r="H1317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>587.39528282</v>
       </c>
       <c r="H1318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>587.69316428</v>
       </c>
       <c r="H1319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>587.15476428</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>586.8533642800001</v>
       </c>
       <c r="H1321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>587.1644426</v>
       </c>
       <c r="H1322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>587.1644426</v>
       </c>
       <c r="H1323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>588.4035426</v>
       </c>
       <c r="H1324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>586.1868426000001</v>
       </c>
       <c r="H1325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>586.1868426000001</v>
       </c>
       <c r="H1326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>584.8244426000001</v>
       </c>
       <c r="H1327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>585.2947426000001</v>
       </c>
       <c r="H1328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>581.4908426000001</v>
       </c>
       <c r="H1329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>580.9865426000001</v>
       </c>
       <c r="H1330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>580.0606381800001</v>
       </c>
       <c r="H1334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>578.91813818</v>
       </c>
       <c r="H1335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>578.9650381800001</v>
       </c>
       <c r="H1336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>578.7465381800001</v>
       </c>
       <c r="H1337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>579.4274381800001</v>
       </c>
       <c r="H1338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>577.2313381800001</v>
       </c>
       <c r="H1339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>577.24053818</v>
       </c>
       <c r="H1340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>577.1923381800001</v>
       </c>
       <c r="H1341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>577.2914381800001</v>
       </c>
       <c r="H1342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>576.9450381800001</v>
       </c>
       <c r="H1343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>566.5401381800001</v>
       </c>
       <c r="H1344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>566.5401381800001</v>
       </c>
       <c r="H1345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>567.1129381800001</v>
       </c>
       <c r="H1346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>565.5335381800002</v>
       </c>
       <c r="H1347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>566.2443381800001</v>
       </c>
       <c r="H1348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>573.7917381800002</v>
       </c>
       <c r="H1349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>573.8556381800001</v>
       </c>
       <c r="H1350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>573.7691381800001</v>
       </c>
       <c r="H1351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>574.6623283600002</v>
       </c>
       <c r="H1352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 BTC ohlcv.xlsx
@@ -2576,7 +2576,7 @@
         <v>20.22107015999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>19.84787015999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>19.30647015999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>23.46373088999999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>32.39483088999999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>29.54403088999999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>30.47283088999999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>30.40366887999999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>30.46630686999999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>30.21925062999999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>32.78765062999999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>30.61865062999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>32.71705062999999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>25.98955062999999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>28.61285062999999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>45.10571025999999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>248.2465355499998</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>247.5209355499998</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>312.1054550599998</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>311.3812550599998</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>318.4280550599998</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>318.4576550599998</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>318.9485670699998</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>319.0876670699998</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>344.1959670699998</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>348.6294670699997</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>349.9527670699998</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>352.1962670699997</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>356.4852626199997</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>360.2753626199997</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>355.7025626199998</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>354.3454626199998</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>364.2254626199997</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>354.6631626499997</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>352.0091626499997</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>358.5911662299997</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>360.2841827499997</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>352.5012827499997</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>334.2031827499997</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>347.7717298999997</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>347.9885298999997</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>344.7134298999997</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>340.7237298999997</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>339.8310298999997</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>335.3238298999997</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>335.9837298999997</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>336.9609298999997</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>337.8737298999997</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>337.4592298999997</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>338.6919298999997</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>342.3525298999997</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>340.1719474499997</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>338.9651474499997</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>337.4531474499997</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>337.9475474799997</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>337.9431474799998</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>338.0938474799997</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>390.7462892199998</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>387.5782078799998</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>387.0423052199998</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>426.7189052199998</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>441.0230052199998</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>427.2819052199998</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>424.8114052199998</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>424.4069052199998</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>424.9298052199998</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>430.5622530299998</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>433.6040530299998</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>434.9664547999998</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>438.5359547999998</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>446.3609318299999</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>476.6978318299999</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>465.7915966299998</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>468.4428966299998</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>473.4965166399998</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>466.3979166399998</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>472.3481166399998</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>473.9916166399998</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>469.3157166399998</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>467.3334166399998</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>468.2810166399998</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>475.2101166399999</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>472.9308166399999</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>475.8817617699999</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>473.8032617699998</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>477.4526617699998</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>475.2679617699998</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>478.5848617699998</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>476.5211311199998</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>477.5466282399998</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>476.7171282399998</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>473.5612282399998</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>453.4411282399998</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>595.9285881399999</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>595.6452881399998</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>592.7362881399998</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
